--- a/Project-Week-documentation/Risk Assessment.xlsx
+++ b/Project-Week-documentation/Risk Assessment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/31a5f18e4e6032e4/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\IMS-22EnableMay2\Project-Week-documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{CCE86B15-B76C-496B-8410-D355BCAD479B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96477255-B874-4DD0-AED3-E989946B71AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4EF6D0-7D36-4656-9ABA-322355187084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,20 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
-  <si>
-    <t>Risks</t>
-  </si>
-  <si>
-    <t>Risk Statement</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="103">
   <si>
     <t>Reponse</t>
   </si>
   <si>
-    <t>Objectives</t>
-  </si>
-  <si>
     <t>Likelihood</t>
   </si>
   <si>
@@ -103,9 +94,6 @@
     <t>Rectify issue with tech support</t>
   </si>
   <si>
-    <t>backups</t>
-  </si>
-  <si>
     <t>Building damage</t>
   </si>
   <si>
@@ -296,13 +284,58 @@
   </si>
   <si>
     <t>Prevent risk of injury</t>
+  </si>
+  <si>
+    <t>Could lead to long term staff absence</t>
+  </si>
+  <si>
+    <t>Ask for assistance from employer if needed</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Evaluation</t>
+  </si>
+  <si>
+    <t>Have local or remote backups</t>
+  </si>
+  <si>
+    <t>Control Measures</t>
+  </si>
+  <si>
+    <t>Impact Level</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Staff member</t>
+  </si>
+  <si>
+    <t>Responsibilty</t>
+  </si>
+  <si>
+    <t>Building Owner</t>
+  </si>
+  <si>
+    <t>Company employer</t>
+  </si>
+  <si>
+    <t>Electricity supplier</t>
+  </si>
+  <si>
+    <t>Internet Provider</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -326,6 +359,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -405,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -425,6 +471,14 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,115 +700,122 @@
   <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
+      <c r="E3" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G3" s="13">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="I4" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K4" s="16">
         <v>1</v>
@@ -769,15 +830,16 @@
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="J5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K5" s="14">
         <v>2</v>
@@ -792,15 +854,16 @@
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="J6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K6" s="14">
         <v>3</v>
@@ -820,6 +883,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -829,6 +893,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
@@ -838,30 +903,33 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="G10" s="13">
         <v>7</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
@@ -869,65 +937,88 @@
       <c r="M10" s="5"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="G11" s="6"/>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="6"/>
+      <c r="H12" s="1"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>99</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G13" s="7">
         <v>9</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -935,45 +1026,66 @@
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="G14" s="6"/>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -983,30 +1095,43 @@
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
     </row>
     <row r="17" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G17" s="10">
         <v>8</v>
       </c>
-      <c r="H17" s="4"/>
+      <c r="H17" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -1014,69 +1139,92 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
     </row>
     <row r="18" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G18" s="6"/>
+      <c r="H18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
     </row>
     <row r="19" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
+      <c r="H19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+      <c r="Y19" s="22"/>
+      <c r="Z19" s="22"/>
     </row>
     <row r="20" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G20" s="13">
         <v>5</v>
       </c>
-      <c r="H20" s="4"/>
+      <c r="H20" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -1084,30 +1232,42 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
     </row>
     <row r="21" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22"/>
+      <c r="Y21" s="22"/>
+      <c r="Z21" s="22"/>
     </row>
     <row r="22" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
@@ -1117,30 +1277,43 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
     </row>
     <row r="23" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>95</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="G23" s="13">
         <v>7</v>
       </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -1148,67 +1321,90 @@
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
     </row>
     <row r="24" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="G24" s="6"/>
+      <c r="H24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
     </row>
     <row r="25" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22"/>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
     </row>
     <row r="26" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="G26" s="11">
         <v>6</v>
       </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -1216,76 +1412,110 @@
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
     </row>
     <row r="27" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="G27" s="6"/>
+      <c r="H27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
     </row>
     <row r="28" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
+      <c r="H28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="22"/>
     </row>
     <row r="29" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
+      <c r="H29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
     </row>
     <row r="30" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>38</v>
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="G30" s="13">
         <v>7</v>
       </c>
-      <c r="H30" s="4"/>
+      <c r="H30" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -1293,65 +1523,88 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
     </row>
     <row r="31" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="G31" s="6"/>
+      <c r="H31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
     </row>
     <row r="32" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="6"/>
-      <c r="D32" s="1"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
     </row>
     <row r="33" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>102</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G33" s="12">
         <v>4</v>
       </c>
-      <c r="H33" s="4"/>
+      <c r="H33" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -1359,32 +1612,42 @@
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
     </row>
     <row r="34" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="F34" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G34" s="6"/>
+      <c r="H34" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
+      <c r="Z34" s="22"/>
     </row>
     <row r="35" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
@@ -1394,30 +1657,43 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
     </row>
     <row r="36" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="G36" s="13">
         <v>3</v>
       </c>
-      <c r="H36" s="4"/>
+      <c r="H36" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -1425,65 +1701,92 @@
       <c r="M36" s="4"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
     </row>
     <row r="37" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="G37" s="6"/>
+      <c r="H37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
+      <c r="W37" s="22"/>
+      <c r="X37" s="22"/>
+      <c r="Y37" s="22"/>
+      <c r="Z37" s="22"/>
     </row>
     <row r="38" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="1"/>
+      <c r="B38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
+      <c r="W38" s="22"/>
+      <c r="X38" s="22"/>
+      <c r="Y38" s="22"/>
+      <c r="Z38" s="22"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="G39" s="11">
         <v>6</v>
       </c>
-      <c r="H39" s="4"/>
+      <c r="H39" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -1491,21 +1794,20 @@
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
